--- a/time_tracking/Matser_thesis_timetracking.xlsx
+++ b/time_tracking/Matser_thesis_timetracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>Forward snowballing</t>
+  </si>
+  <si>
+    <t>2.5 hr</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>Meeting with professor + papers abstract + conclusions on forward snowballing</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
     <col min="5" max="5" style="6" width="48.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,15 +456,15 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>44839</v>
       </c>
       <c r="B2" s="2">
-        <v>1.3333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="C2" s="2">
-        <v>1.6458333333333335</v>
+        <v>2.645833333333333</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -461,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>44870</v>
       </c>
@@ -478,182 +490,202 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44562.958333333336</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44562.020833333336</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44562.333333333336</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44562.458333333336</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>

--- a/time_tracking/Matser_thesis_timetracking.xlsx
+++ b/time_tracking/Matser_thesis_timetracking.xlsx
@@ -52,7 +52,7 @@
     <t>3 hr</t>
   </si>
   <si>
-    <t>Meeting with professor + papers abstract + conclusions on forward snowballing</t>
+    <t>Meeting with professor + papers abstract + conclusions on forwand deebul ard snowballing</t>
   </si>
 </sst>
 </file>

--- a/time_tracking/Matser_thesis_timetracking.xlsx
+++ b/time_tracking/Matser_thesis_timetracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>Meeting with professor + papers abstract + conclusions on forwand deebul ard snowballing</t>
+  </si>
+  <si>
+    <t>14/05/2022</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>15/05/2022</t>
+  </si>
+  <si>
+    <t>4 hr</t>
+  </si>
+  <si>
+    <t>Proposal + slides</t>
+  </si>
+  <si>
+    <t>16/05/2022</t>
+  </si>
+  <si>
+    <t>12 hr</t>
+  </si>
+  <si>
+    <t>Literature review + Forward snowballing + Data collection</t>
   </si>
 </sst>
 </file>
@@ -436,7 +460,7 @@
     <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="48.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="51.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -461,10 +485,10 @@
         <v>44839</v>
       </c>
       <c r="B2" s="2">
-        <v>2.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="C2" s="2">
-        <v>2.645833333333333</v>
+        <v>3.6458333333333335</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -525,25 +549,55 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44562.791666666664</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44562.916666666664</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44562.666666666664</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44562.833333333336</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44562.479166666664</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44562</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
